--- a/Pricing/PricingFor100.xlsx
+++ b/Pricing/PricingFor100.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik\Documents\Projects\ID\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="8535"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="8535" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Without USB" sheetId="1" r:id="rId1"/>
+    <sheet name="With USB" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
   <si>
     <t>Description</t>
   </si>
@@ -53,9 +49,6 @@
     <t>LEDs</t>
   </si>
   <si>
-    <t>AtMega 328 ??</t>
-  </si>
-  <si>
     <t>Quantity (for 100 units)</t>
   </si>
   <si>
@@ -93,13 +86,46 @@
   </si>
   <si>
     <t>CLA1B-WKW-XD0F0E33</t>
+  </si>
+  <si>
+    <t>AtMega32U4-AU</t>
+  </si>
+  <si>
+    <t>556-ATMEGA32U4-AU</t>
+  </si>
+  <si>
+    <t>MicroController (USB capable)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price of Unit </t>
+  </si>
+  <si>
+    <t>Price of 100 Units</t>
+  </si>
+  <si>
+    <t>ITEAD</t>
+  </si>
+  <si>
+    <t>841-MMA8452QR1</t>
+  </si>
+  <si>
+    <t>MMA8452QR1</t>
+  </si>
+  <si>
+    <t>Accelerometer</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>ATMega328</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,16 +142,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -133,18 +198,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -414,7 +502,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -422,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,32 +524,32 @@
     <col min="5" max="5" width="24.140625" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" customWidth="1"/>
     <col min="7" max="7" width="27.140625" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -476,16 +564,16 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -499,16 +587,16 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -522,16 +610,16 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>100</v>
       </c>
       <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
         <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -545,16 +633,16 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1200</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -565,24 +653,265 @@
         <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>400</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f>SUM(A2:A8)</f>
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <f>SUM(B2:B8)</f>
-        <v>950.35</v>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.876</v>
+      </c>
+      <c r="B7">
+        <v>87.6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <f>SUM(A2:A7)</f>
+        <v>11.875999999999999</v>
+      </c>
+      <c r="B11" s="3">
+        <f>SUM(B2:B7)</f>
+        <v>1037.95</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4.21</v>
+      </c>
+      <c r="B2">
+        <v>421</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.99</v>
+      </c>
+      <c r="B3">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2.94</v>
+      </c>
+      <c r="B4">
+        <v>294.35000000000002</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2.64</v>
+      </c>
+      <c r="B5">
+        <v>264</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>1200</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2.5</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>400</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.876</v>
+      </c>
+      <c r="B7">
+        <v>87.6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <f>SUM(A2:A7)</f>
+        <v>14.156000000000001</v>
+      </c>
+      <c r="B10" s="3">
+        <f>SUM(B2:B7)</f>
+        <v>1265.9499999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>